--- a/Excel/auth_64/main/01/s10/cmn.xlsx
+++ b/Excel/auth_64/main/01/s10/cmn.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>OFFSET</t>
   </si>
@@ -20,7 +20,7 @@
     <t>ORIGINAL</t>
   </si>
   <si>
-    <t>TRADUÇÃO</t>
+    <t>TRADUCCIÓN</t>
   </si>
   <si>
     <t>It's always so nice and quiet in here.</t>
@@ -62,7 +62,7 @@
     <t>True that.</t>
   </si>
   <si>
-    <t>Isso é verdade.</t>
+    <t>E ela acertou.</t>
   </si>
   <si>
     <t>So, how's the Kiryu Family coming along?</t>
@@ -80,48 +80,89 @@
     <t>That's up to the boss.</t>
   </si>
   <si>
+    <t>Isso depende do chefe.</t>
+  </si>
+  <si>
     <t>Like the boss is gonna object.</t>
   </si>
   <si>
+    <t>Como se o chefe se opusesse.</t>
+  </si>
+  <si>
     <t>Kazama-san's got his weight behind it.</t>
   </si>
   <si>
+    <t>Kazama-san tem o fardo dele por trás disso.</t>
+  </si>
+  <si>
     <t>He's the one keeping the Dojima Family\nafloat at this point anyway.</t>
   </si>
   <si>
+    <t>É ele é que mantém a família Dojima funcionando agora.</t>
+  </si>
+  <si>
     <t>Dojima is somethin' else these days.</t>
   </si>
   <si>
+    <t>Dojima é outra coisa hoje em dia.</t>
+  </si>
+  <si>
     <t>All he does is yak about his glory days.</t>
   </si>
   <si>
+    <t>Tudo o que ele faz é tagarelar sobre os seus dias de glória.</t>
+  </si>
+  <si>
     <t>Watch it, Nishiki.</t>
   </si>
   <si>
+    <t>Cuidado, Nishiki.</t>
+  </si>
+  <si>
     <t>You beat me to the punch again, eh?</t>
   </si>
   <si>
+    <t>Você me venceu de novo, hein?</t>
+  </si>
+  <si>
     <t>Come on, Nishiki.\nHow's your sister doing?</t>
   </si>
   <si>
-    <t>Come on, Nishiki.\nE como está sua irmã?</t>
+    <t>Qual é, Nishiki.\nE como está sua irmã?</t>
   </si>
   <si>
     <t>Next month...\nShe's up for another surgery.</t>
   </si>
   <si>
+    <t>No próximo mês...
+\nEla será operada novamente.</t>
+  </si>
+  <si>
     <t>It'll probably be the last.</t>
   </si>
   <si>
+    <t>Provavelmente será a última.</t>
+  </si>
+  <si>
     <t>The last?</t>
   </si>
   <si>
+    <t>A última?</t>
+  </si>
+  <si>
     <t>She can only hold out so much longer.\nIf this one doesn't work, then...</t>
   </si>
   <si>
+    <t>Ela não conseguirá aguentar muito mais tempo.
+\nSe esta não funcionar, então...</t>
+  </si>
+  <si>
     <t>I see...</t>
   </si>
   <si>
+    <t>Entendo...</t>
+  </si>
+  <si>
     <t>Oh! You guys are here!</t>
   </si>
   <si>
@@ -134,10 +175,13 @@
     <t>What? Drunk already?\nHow dare you start without me!</t>
   </si>
   <si>
-    <t>O quê? Já estão bebados?\nComo você se atreve a começar sem mim!</t>
+    <t>O quê? Já estão bebados?\nComo vocês se atreveram a começar sem mim!</t>
   </si>
   <si>
     <t>Go ahead, be my guest.</t>
+  </si>
+  <si>
+    <t>Vá em frente, fique à vontade.</t>
   </si>
 </sst>
 </file>
@@ -307,7 +351,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -315,10 +359,10 @@
         <v>222240</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -326,10 +370,10 @@
         <v>222512</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -337,10 +381,10 @@
         <v>222784</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -348,10 +392,10 @@
         <v>223056</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -359,10 +403,10 @@
         <v>223328</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -370,10 +414,10 @@
         <v>223600</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -381,10 +425,10 @@
         <v>223872</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -392,10 +436,10 @@
         <v>224144</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -403,10 +447,10 @@
         <v>224416</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -414,10 +458,10 @@
         <v>224688</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -425,10 +469,10 @@
         <v>224960</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -436,10 +480,10 @@
         <v>225232</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -447,10 +491,10 @@
         <v>225504</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -458,10 +502,10 @@
         <v>225776</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -469,10 +513,10 @@
         <v>226048</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
@@ -480,10 +524,10 @@
         <v>226320</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
@@ -491,10 +535,10 @@
         <v>226592</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
